--- a/Documentação/xlxs/Product Backlog.xlsx
+++ b/Documentação/xlxs/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS10\Desktop\BandTec\Pesquisa e Inovação\HealthServer\HealthServer\Documentação\xlxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliana\Desktop\bandtec\felipe-aulas\Segundo Semestre\PI\HealthServer\Documentação\xlxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B4EFC1-6EA5-439A-B6D3-2493E7556CED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208C1FD3-678B-4C96-A987-C1880BA7D25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
   <si>
     <t>João</t>
   </si>
@@ -230,6 +230,30 @@
   </si>
   <si>
     <t xml:space="preserve">O projeto deverá contar com uma contextualização </t>
+  </si>
+  <si>
+    <t>US#001</t>
+  </si>
+  <si>
+    <t>US#002</t>
+  </si>
+  <si>
+    <t>US#003</t>
+  </si>
+  <si>
+    <t>US#004</t>
+  </si>
+  <si>
+    <t>US#005</t>
+  </si>
+  <si>
+    <t>US#006</t>
+  </si>
+  <si>
+    <t>US#007</t>
+  </si>
+  <si>
+    <t>US#008</t>
   </si>
 </sst>
 </file>
@@ -239,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -364,6 +388,12 @@
       <sz val="11"/>
       <name val="Exo"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -522,7 +552,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -663,6 +693,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,9 +705,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -700,7 +731,209 @@
     <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="46">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1033,13 +1266,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1141,16 +1374,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>204106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>557893</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>693965</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1165,8 +1398,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10178143" y="1605642"/>
-          <a:ext cx="4884964" cy="1415143"/>
+          <a:off x="6681108" y="204106"/>
+          <a:ext cx="4191000" cy="1238251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1210,12 +1443,9 @@
           </a:r>
         </a:p>
         <a:p>
-          <a:endParaRPr lang="pt-BR" sz="1800" baseline="0"/>
-        </a:p>
-        <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como cliente quero almoçar rápido para poder aproveitar mais o meu horário de almoço.</a:t>
+            <a:t>Eu como empresa quero uma pagina de cadastro para saber quem esta logando no sistema.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1225,16 +1455,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>100693</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>249010</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>168728</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>639536</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>272143</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1249,8 +1479,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10263868" y="3339193"/>
-          <a:ext cx="4880882" cy="1341664"/>
+          <a:off x="6685189" y="1570264"/>
+          <a:ext cx="4635953" cy="947057"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1296,7 +1526,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como cliente quero segurança na hora de realizar o pagamento para não ter meus dados vazados.</a:t>
+            <a:t>Eu como cliente quero um site para saber mais sobre o negocio que estou contratando</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1306,16 +1536,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>34018</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>198664</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>224518</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>198665</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>587829</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>517071</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1330,8 +1560,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10212161" y="5206093"/>
-          <a:ext cx="4880882" cy="1341664"/>
+          <a:off x="6660697" y="2620736"/>
+          <a:ext cx="4592410" cy="1134835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1377,7 +1607,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como restaurante quero segurança no cadastro do cliente evitar dados de cliente falso e assim evitar fraudes.</a:t>
+            <a:t>Eu como sistema quero que seja gerado logs para registro dos ocorrido no servidor</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1387,16 +1617,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13607</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>163286</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>734785</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>567418</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>89807</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1411,8 +1641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10191750" y="6966857"/>
-          <a:ext cx="4880882" cy="1341664"/>
+          <a:off x="6599465" y="3973285"/>
+          <a:ext cx="5143500" cy="1319894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,7 +1688,331 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como restaurante quero recuperar o espaço perdido para self-service para aumentar meus lucros</a:t>
+            <a:t>Eu como usuário quero que os graficos gerados pelo sistema sejam de simples entendimento para facil compreensão dos dados</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111577</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>244929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CaixaDeTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D558251-0858-4DB8-9E7A-8052EB0B1128}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6547756" y="5391150"/>
+          <a:ext cx="4882244" cy="1357993"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800"/>
+            <a:t>US</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>#005</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>Eu como usuário quero que sistema me avise caso tenham dados críticos no servidor para que possa ser realizado manutenções</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>182335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>367393</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734108A9-F89F-4FC4-9658-0C7864C47CDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12360727" y="182335"/>
+          <a:ext cx="4675416" cy="1273628"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800"/>
+            <a:t>US</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>#006</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>Eu como programador quero que sejam forcecidos dados analitys para criação dos alertas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601437</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CaixaDeTexto 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432085DB-0F2C-4FB7-AE7D-8431BE1D3A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12358008" y="1758042"/>
+          <a:ext cx="4191000" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800"/>
+            <a:t>US</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>#007</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>Eu como sistema preciso que tenha uma banco de dados para armazenar todas as informações geradas</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>699407</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>5441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CaixaDeTexto 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CF9B16-FB2B-41B8-A220-2FB7594DAFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12319907" y="3243941"/>
+          <a:ext cx="4689021" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800"/>
+            <a:t>US</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>#008</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>Eu como equipe preciso de uma documentação total projeto para um bom desenvolvimento do projeto</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1793,8 +2347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:K51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -1814,15 +2368,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:11" s="18" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
@@ -1852,7 +2406,9 @@
       <c r="B5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="30"/>
+      <c r="C5" s="30" t="s">
+        <v>66</v>
+      </c>
       <c r="D5" s="31" t="s">
         <v>49</v>
       </c>
@@ -1865,7 +2421,9 @@
       <c r="B6" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="30"/>
+      <c r="C6" s="30" t="s">
+        <v>67</v>
+      </c>
       <c r="D6" s="42" t="s">
         <v>50</v>
       </c>
@@ -1878,7 +2436,9 @@
       <c r="B7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="30" t="s">
+        <v>68</v>
+      </c>
       <c r="D7" s="34" t="s">
         <v>51</v>
       </c>
@@ -1891,7 +2451,9 @@
       <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="35" t="s">
+        <v>69</v>
+      </c>
       <c r="D8" s="36" t="s">
         <v>52</v>
       </c>
@@ -1899,46 +2461,52 @@
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="46"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="37" t="s">
-        <v>53</v>
+      <c r="C9" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>64</v>
       </c>
       <c r="E9" s="38"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
-      <c r="I9" s="20"/>
-      <c r="J9"/>
-      <c r="K9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" s="19" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="10" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B10" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="30" t="s">
+        <v>70</v>
+      </c>
       <c r="D10" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="E10" s="38"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="I10" s="20"/>
+      <c r="J10"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="30"/>
+      <c r="C11" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="38"/>
+        <v>54</v>
+      </c>
+      <c r="E11" s="32"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
@@ -1947,9 +2515,11 @@
       <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="30"/>
+      <c r="C12" s="30" t="s">
+        <v>71</v>
+      </c>
       <c r="D12" s="37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" s="38"/>
       <c r="F12" s="33"/>
@@ -1960,9 +2530,11 @@
       <c r="B13" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="D13" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="33"/>
@@ -1973,9 +2545,11 @@
       <c r="B14" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="30"/>
+      <c r="C14" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="D14" s="37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="33"/>
@@ -1986,9 +2560,11 @@
       <c r="B15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="30" t="s">
+        <v>72</v>
+      </c>
       <c r="D15" s="37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="38"/>
       <c r="F15" s="33"/>
@@ -1999,7 +2575,9 @@
       <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="30" t="s">
+        <v>73</v>
+      </c>
       <c r="D16" s="37" t="s">
         <v>60</v>
       </c>
@@ -2012,7 +2590,9 @@
       <c r="B17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="30" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="37" t="s">
         <v>61</v>
       </c>
@@ -2025,9 +2605,11 @@
       <c r="B18" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="40" t="s">
-        <v>62</v>
+      <c r="C18" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="41" t="s">
+        <v>65</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="33"/>
@@ -2038,12 +2620,14 @@
       <c r="B19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="41" t="s">
-        <v>63</v>
+      <c r="C19" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="F19" s="33"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
     </row>
@@ -2053,10 +2637,10 @@
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="33"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
     </row>
@@ -2065,8 +2649,8 @@
         <v>20</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="41" t="s">
-        <v>65</v>
+      <c r="D21" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="E21" s="38"/>
       <c r="F21" s="33"/>
@@ -2306,77 +2890,164 @@
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B5:E6 E7 C5:C7 B7:B34">
-    <cfRule type="expression" dxfId="20" priority="34">
+  <conditionalFormatting sqref="B5:E6 E7 C5:C7 B7:B8 B19:B20 B22:B34 B10:B17">
+    <cfRule type="expression" dxfId="45" priority="69">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="44" priority="70">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36">
+    <cfRule type="expression" dxfId="43" priority="71">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="42" priority="72">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="41" priority="61">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="40" priority="62">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="39" priority="63">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="38" priority="64">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="37" priority="53">
       <formula>$B7="Done!"</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="36" priority="54">
+      <formula>$B7="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="55">
+      <formula>$B7="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="56">
+      <formula>$B7="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8 C19:C20 C22:C34 C10:C17">
+    <cfRule type="expression" dxfId="33" priority="45">
+      <formula>$B8="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="46">
+      <formula>$B8="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="47">
+      <formula>$B8="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="48">
+      <formula>$B8="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:D34">
+    <cfRule type="expression" dxfId="29" priority="36">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="41">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="42">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="43">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="44">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="24" priority="32">
+      <formula>$B9="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="33">
+      <formula>$B9="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="34">
+      <formula>$B9="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="35">
+      <formula>$B9="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="expression" dxfId="20" priority="28">
+      <formula>$B9="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>$B9="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="30">
+      <formula>$B9="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="31">
+      <formula>$B9="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="16" priority="23">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="24">
+      <formula>$B9="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="25">
+      <formula>$B9="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="26">
+      <formula>$B9="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="27">
+      <formula>$B9="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
     <cfRule type="expression" dxfId="11" priority="19">
-      <formula>$B7="Ongoing"</formula>
+      <formula>$B18="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="10" priority="20">
-      <formula>$B7="Blocked"</formula>
+      <formula>$B18="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="9" priority="21">
-      <formula>$B7="Dropped"</formula>
+      <formula>$B18="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="22">
+      <formula>$B18="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8:C34">
-    <cfRule type="expression" dxfId="8" priority="10">
-      <formula>$B8="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
-      <formula>$B8="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
-      <formula>$B8="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
-      <formula>$B8="Dropped"</formula>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>$B21="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11">
+      <formula>$B21="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12">
+      <formula>$B21="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="13">
+      <formula>$B21="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9:D34">
-    <cfRule type="expression" dxfId="4" priority="1">
-      <formula>$B$4="Plannedd"</formula>
-    </cfRule>
+  <conditionalFormatting sqref="C21">
     <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$B9="Done!"</formula>
+      <formula>$B21="Done!"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$B9="Ongoing"</formula>
+      <formula>$B21="Ongoing"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$B9="Blocked"</formula>
+      <formula>$B21="Blocked"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$B9="Dropped"</formula>
+      <formula>$B21="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -2410,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>

--- a/Documentação/xlxs/Product Backlog.xlsx
+++ b/Documentação/xlxs/Product Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eliana\Desktop\bandtec\felipe-aulas\Segundo Semestre\PI\HealthServer\Documentação\xlxs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS10\Desktop\BandTec\Pesquisa e Inovação\HealthServer\HealthServer\Documentação\xlxs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{208C1FD3-678B-4C96-A987-C1880BA7D25D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4BFFD5-BDDD-4DF4-8E9A-432081C7A106}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>João</t>
   </si>
@@ -220,9 +220,6 @@
     <t>O projeto deverá contar com um user histories</t>
   </si>
   <si>
-    <t>O projeto deverá contar com documentos para contextualização</t>
-  </si>
-  <si>
     <t>A proto persona do projeto deverá estar bem definido</t>
   </si>
   <si>
@@ -232,28 +229,55 @@
     <t xml:space="preserve">O projeto deverá contar com uma contextualização </t>
   </si>
   <si>
-    <t>US#001</t>
-  </si>
-  <si>
-    <t>US#002</t>
-  </si>
-  <si>
-    <t>US#003</t>
-  </si>
-  <si>
-    <t>US#004</t>
-  </si>
-  <si>
-    <t>US#005</t>
-  </si>
-  <si>
-    <t>US#006</t>
-  </si>
-  <si>
-    <t>US#007</t>
-  </si>
-  <si>
-    <t>US#008</t>
+    <t>US#001 &lt;Cadastro&gt;</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>US#002 &lt;Site&gt;</t>
+  </si>
+  <si>
+    <t>US#003 &lt;Logs&gt;</t>
+  </si>
+  <si>
+    <t>US#004 &lt;Informação Gráfica&gt;</t>
+  </si>
+  <si>
+    <t>US#005 &lt;Prevenção&gt;</t>
+  </si>
+  <si>
+    <t>US#005 &lt;Alerta&gt;</t>
+  </si>
+  <si>
+    <t>US#006 &lt;Analytics&gt;</t>
+  </si>
+  <si>
+    <t>US#005 &lt;Alerta Componentes&gt;</t>
+  </si>
+  <si>
+    <t>US#007 &lt;Banco log&gt;</t>
+  </si>
+  <si>
+    <t>US#001 &lt;Banco Login&gt;</t>
+  </si>
+  <si>
+    <t>US#007 &lt;Nuvem&gt;</t>
+  </si>
+  <si>
+    <t>US#008 &lt;Storyboard&gt;</t>
+  </si>
+  <si>
+    <t>US#008 &lt;User History&gt;</t>
+  </si>
+  <si>
+    <t>US#008 &lt;Contexto&gt;</t>
+  </si>
+  <si>
+    <t>US#008 &lt;ProtoPersona&gt;</t>
+  </si>
+  <si>
+    <t>US#009 &lt;GitHub&gt;</t>
   </si>
 </sst>
 </file>
@@ -434,7 +458,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -527,6 +551,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -552,7 +630,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -681,10 +759,6 @@
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -705,7 +779,27 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -731,7 +825,123 @@
     <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="46">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFEFB661"/>
+          <bgColor rgb="FFEFB661"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFC8D"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFCCFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1266,13 +1476,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1445,7 +1655,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como empresa quero uma pagina de cadastro para saber quem esta logando no sistema.</a:t>
+            <a:t>Eu como proprietário quero uma pagina de cadastro para controlar quem entra no sistema.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1463,8 +1673,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>421821</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1480,7 +1690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6685189" y="1570264"/>
-          <a:ext cx="4635953" cy="947057"/>
+          <a:ext cx="4635953" cy="1164772"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1526,7 +1736,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como cliente quero um site para saber mais sobre o negocio que estou contratando</a:t>
+            <a:t>Eu como proprietário quero ver um site para saber mais sobre o negocio que estou contratando.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1538,14 +1748,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>224518</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>198665</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>353786</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>517071</xdr:rowOff>
+      <xdr:rowOff>693964</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1560,7 +1770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6660697" y="2620736"/>
+          <a:off x="6660697" y="2797629"/>
           <a:ext cx="4592410" cy="1134835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1607,7 +1817,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como sistema quero que seja gerado logs para registro dos ocorrido no servidor</a:t>
+            <a:t>Eu como suporte TI quero que seja gerado logs para registro das medições do servidor.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1688,7 +1898,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como usuário quero que os graficos gerados pelo sistema sejam de simples entendimento para facil compreensão dos dados</a:t>
+            <a:t>Eu como funcionário quero que os graficos gerados pelo sistema sejam de simples entendimento para facil compreensão dos dados por qualquer um.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1769,7 +1979,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como usuário quero que sistema me avise caso tenham dados críticos no servidor para que possa ser realizado manutenções</a:t>
+            <a:t>Eu como funcionário quero que sistema me avise caso tenham dados críticos no servidor para que possa ser realizado manutenções.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1850,7 +2060,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como programador quero que sejam forcecidos dados analitys para criação dos alertas</a:t>
+            <a:t>Eu como desenvolvedor quero que sejam forcecidos dados analitys para criação dos alertas.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -1931,7 +2141,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como sistema preciso que tenha uma banco de dados para armazenar todas as informações geradas</a:t>
+            <a:t>Eu como proprietário preciso que tenha uma banco de dados para armazenar todas as informações geradas.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -2012,7 +2222,88 @@
         <a:p>
           <a:r>
             <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
-            <a:t>Eu como equipe preciso de uma documentação total projeto para um bom desenvolvimento do projeto</a:t>
+            <a:t>Eu como desenvolvedor preciso de uma documentação do projeto para ter uma linha guia e conseguir vender melhor a ideia.</a:t>
+          </a:r>
+          <a:endParaRPr lang="pt-BR" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620486</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>261257</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>253092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CaixaDeTexto 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D1A15D1-528B-4ADA-804C-DB8AA53C8496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12240986" y="5219698"/>
+          <a:ext cx="4689021" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800"/>
+            <a:t>US</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>#009</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1800" baseline="0"/>
+            <a:t>Eu como desenvolvedor preciso projeto upado no GitHub para poder acompanhar as mudanças e realizar versionamento.</a:t>
           </a:r>
           <a:endParaRPr lang="pt-BR" sz="1800"/>
         </a:p>
@@ -2345,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:K50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -2368,15 +2659,15 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:11" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:11" s="18" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
@@ -2407,14 +2698,16 @@
         <v>20</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>49</v>
       </c>
       <c r="E5" s="32"/>
       <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
+      <c r="G5" s="33" t="s">
+        <v>66</v>
+      </c>
       <c r="H5" s="33"/>
     </row>
     <row r="6" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
@@ -2422,10 +2715,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>50</v>
+        <v>75</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
@@ -2437,10 +2730,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
@@ -2451,32 +2744,32 @@
       <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>52</v>
+      <c r="C8" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>51</v>
       </c>
       <c r="E8" s="32"/>
       <c r="F8" s="33"/>
       <c r="G8" s="33"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="38"/>
+      <c r="C9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="32"/>
       <c r="F9" s="33"/>
       <c r="G9" s="33"/>
       <c r="H9" s="33"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B10" s="29" t="s">
@@ -2485,18 +2778,15 @@
       <c r="C10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>53</v>
+      <c r="D10" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="E10" s="38"/>
       <c r="F10" s="33"/>
       <c r="G10" s="33"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="20"/>
-      <c r="J10"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" s="19" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="11" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B11" s="29" t="s">
         <v>20</v>
       </c>
@@ -2504,24 +2794,27 @@
         <v>71</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="32"/>
+        <v>53</v>
+      </c>
+      <c r="E11" s="38"/>
       <c r="F11" s="33"/>
       <c r="G11" s="33"/>
       <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="2:11" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="I11" s="20"/>
+      <c r="J11"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="2:11" s="19" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B12" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D12" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="32"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
@@ -2533,8 +2826,8 @@
       <c r="C13" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="37" t="s">
-        <v>56</v>
+      <c r="D13" s="46" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="38"/>
       <c r="F13" s="33"/>
@@ -2546,10 +2839,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="38"/>
       <c r="F14" s="33"/>
@@ -2561,7 +2854,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D15" s="37" t="s">
         <v>58</v>
@@ -2576,7 +2869,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D16" s="37" t="s">
         <v>60</v>
@@ -2590,8 +2883,8 @@
       <c r="B17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="30" t="s">
-        <v>73</v>
+      <c r="C17" s="50" t="s">
+        <v>78</v>
       </c>
       <c r="D17" s="37" t="s">
         <v>61</v>
@@ -2602,14 +2895,14 @@
       <c r="H17" s="33"/>
     </row>
     <row r="18" spans="2:8" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>65</v>
+      <c r="C18" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="E18" s="38"/>
       <c r="F18" s="33"/>
@@ -2620,14 +2913,14 @@
       <c r="B19" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>73</v>
+      <c r="C19" s="47" t="s">
+        <v>80</v>
       </c>
       <c r="D19" s="40" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="38"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="39"/>
       <c r="G19" s="33"/>
       <c r="H19" s="33"/>
     </row>
@@ -2635,12 +2928,14 @@
       <c r="B20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="41" t="s">
-        <v>63</v>
+      <c r="C20" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>59</v>
       </c>
       <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="F20" s="33"/>
       <c r="G20" s="33"/>
       <c r="H20" s="33"/>
     </row>
@@ -2649,9 +2944,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="30"/>
-      <c r="D21" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="D21" s="40"/>
       <c r="E21" s="38"/>
       <c r="F21" s="33"/>
       <c r="G21" s="33"/>
@@ -2662,7 +2955,7 @@
         <v>20</v>
       </c>
       <c r="C22" s="30"/>
-      <c r="D22" s="41"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="38"/>
       <c r="F22" s="33"/>
       <c r="G22" s="33"/>
@@ -2673,7 +2966,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="30"/>
-      <c r="D23" s="41"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="38"/>
       <c r="F23" s="33"/>
       <c r="G23" s="33"/>
@@ -2684,24 +2977,24 @@
         <v>20</v>
       </c>
       <c r="C24" s="30"/>
-      <c r="D24" s="41"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="38"/>
       <c r="F24" s="33"/>
       <c r="G24" s="33"/>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="2:8" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="25" spans="2:8" s="19" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B25" s="29" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="30"/>
-      <c r="D25" s="41"/>
+      <c r="D25" s="29"/>
       <c r="E25" s="38"/>
       <c r="F25" s="33"/>
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="2:8" s="19" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+    <row r="26" spans="2:8" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B26" s="29" t="s">
         <v>20</v>
       </c>
@@ -2789,16 +3082,10 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="2:8" s="19" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B34" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+    <row r="34" spans="2:8" s="19" customFormat="1" ht="23.1" customHeight="1">
+      <c r="C34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="2:8" s="19" customFormat="1" ht="23.1" customHeight="1">
       <c r="C35" s="21"/>
@@ -2879,175 +3166,218 @@
       <c r="C50" s="21"/>
       <c r="E50" s="22"/>
       <c r="G50" s="23"/>
-    </row>
-    <row r="51" spans="3:7" s="19" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="G51" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="B5:E6 E7 C5:C7 B7:B8 B19:B20 B22:B34 B10:B17">
-    <cfRule type="expression" dxfId="45" priority="69">
+  <conditionalFormatting sqref="B5:E7 E8 C5:C8 B8:B9 B21:B33 B11:B17 B19">
+    <cfRule type="expression" dxfId="59" priority="69">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="70">
+    <cfRule type="expression" dxfId="58" priority="70">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="71">
+    <cfRule type="expression" dxfId="57" priority="71">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="72">
+    <cfRule type="expression" dxfId="56" priority="72">
       <formula>$B5="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9">
+    <cfRule type="expression" dxfId="55" priority="61">
+      <formula>$B9="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="62">
+      <formula>$B9="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="53" priority="63">
+      <formula>$B9="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="52" priority="64">
+      <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="41" priority="61">
+    <cfRule type="expression" dxfId="51" priority="53">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="62">
+    <cfRule type="expression" dxfId="50" priority="54">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="63">
+    <cfRule type="expression" dxfId="49" priority="55">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="64">
+    <cfRule type="expression" dxfId="48" priority="56">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="37" priority="53">
-      <formula>$B7="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="54">
-      <formula>$B7="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="35" priority="55">
-      <formula>$B7="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="56">
-      <formula>$B7="Dropped"</formula>
+  <conditionalFormatting sqref="C9 C21:C33 C11:C17">
+    <cfRule type="expression" dxfId="47" priority="45">
+      <formula>$B9="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>$B9="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="47">
+      <formula>$B9="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="48">
+      <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C8 C19:C20 C22:C34 C10:C17">
-    <cfRule type="expression" dxfId="33" priority="45">
-      <formula>$B8="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="46">
-      <formula>$B8="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="47">
-      <formula>$B8="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="48">
-      <formula>$B8="Dropped"</formula>
+  <conditionalFormatting sqref="D11 D14:D33">
+    <cfRule type="expression" dxfId="43" priority="36">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="41">
+      <formula>$B11="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>$B11="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="43">
+      <formula>$B11="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="44">
+      <formula>$B11="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:D34">
-    <cfRule type="expression" dxfId="29" priority="36">
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="38" priority="32">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="33">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="34">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="expression" dxfId="34" priority="28">
+      <formula>$B10="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="29">
+      <formula>$B10="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="32" priority="30">
+      <formula>$B10="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="31">
+      <formula>$B10="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10">
+    <cfRule type="expression" dxfId="30" priority="23">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="41">
+    <cfRule type="expression" dxfId="29" priority="24">
       <formula>$B10="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="42">
+    <cfRule type="expression" dxfId="28" priority="25">
       <formula>$B10="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="43">
+    <cfRule type="expression" dxfId="27" priority="26">
       <formula>$B10="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="44">
+    <cfRule type="expression" dxfId="26" priority="27">
       <formula>$B10="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="24" priority="32">
-      <formula>$B9="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="33">
-      <formula>$B9="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="34">
-      <formula>$B9="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="35">
-      <formula>$B9="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="expression" dxfId="20" priority="28">
-      <formula>$B9="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="29">
-      <formula>$B9="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="30">
-      <formula>$B9="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="31">
-      <formula>$B9="Dropped"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="expression" dxfId="16" priority="23">
-      <formula>$B$4="Plannedd"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24">
-      <formula>$B9="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="25">
-      <formula>$B9="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="26">
-      <formula>$B9="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="27">
-      <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="25" priority="19">
       <formula>$B18="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="24" priority="20">
       <formula>$B18="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$B18="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="22">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$B18="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="7" priority="10">
-      <formula>$B21="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>$B21="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>$B21="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="13">
-      <formula>$B21="Dropped"</formula>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="expression" dxfId="21" priority="10">
+      <formula>$B20="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="20" priority="11">
+      <formula>$B20="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="12">
+      <formula>$B20="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="13">
+      <formula>$B20="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="3" priority="6">
-      <formula>$B21="Done!"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>$B21="Ongoing"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
-      <formula>$B21="Blocked"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>$B21="Dropped"</formula>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="expression" dxfId="17" priority="6">
+      <formula>$B20="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="7">
+      <formula>$B20="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="8">
+      <formula>$B20="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="9">
+      <formula>$B20="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="13" priority="78">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="79">
+      <formula>$B13="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="80">
+      <formula>$B13="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="81">
+      <formula>$B13="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="82">
+      <formula>$B13="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="expression" dxfId="8" priority="114">
+      <formula>#REF!="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="115">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="116">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="117">
+      <formula>#REF!="Dropped"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="expression" dxfId="4" priority="118">
+      <formula>$B$4="Plannedd"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="119">
+      <formula>#REF!="Done!"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="120">
+      <formula>#REF!="Ongoing"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="121">
+      <formula>#REF!="Blocked"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="122">
+      <formula>#REF!="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -3063,13 +3393,13 @@
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B34</xm:sqref>
+          <xm:sqref>B5:B33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Dados!$A$14:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E34</xm:sqref>
+          <xm:sqref>E5:E33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3081,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>

--- a/Documentação/xlxs/Product Backlog.xlsx
+++ b/Documentação/xlxs/Product Backlog.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS10\Desktop\BandTec\Pesquisa e Inovação\HealthServer\HealthServer\Documentação\xlxs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BC631A-54AE-4CE1-BF07-AB08CD3C7688}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016" tabRatio="885"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="16" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>Importante</t>
   </si>
@@ -157,16 +151,67 @@
   </si>
   <si>
     <t>US#009 &lt;GitHub&gt;</t>
+  </si>
+  <si>
+    <t>Pontuação</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Matheus</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Fácil</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Complexo</t>
+  </si>
+  <si>
+    <t>DIficil</t>
+  </si>
+  <si>
+    <t>Muito Dificil</t>
+  </si>
+  <si>
+    <t>Tudo o que está com pontuação 3, é porque acredito que seja facil e há entendimento da minha parte.</t>
+  </si>
+  <si>
+    <t>Tudo o que está com pontuação 5, há entendimento da minha parte porem exige um pouco mais de tempo para desenvolver e maior contexto por trás.</t>
+  </si>
+  <si>
+    <t>Tudo o que está com pontuação 8, há entendimento da minha parte, mas exige tempo para desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tudo o que está com pontuação 13, há entendimento da minha parte, porem, o desenvolvimento do mesmo exige mais estudo e entendimento dos valores </t>
+  </si>
+  <si>
+    <t>Pontuação: DYLAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -258,8 +303,31 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +346,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FFC9DAF8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -411,6 +515,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -436,7 +581,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -560,6 +705,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -1187,7 +1369,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C237F12-9C79-4455-B9B4-0B3C619348CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C237F12-9C79-4455-B9B4-0B3C619348CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,67 +1416,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE2F4EA-6C86-4F84-B688-963E5A4FAF70}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12496800" y="2676525"/>
-          <a:ext cx="8924925" cy="4105275"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -1311,7 +1432,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3E689-C90D-474C-A0DF-E823DF93503E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C3E689-C90D-474C-A0DF-E823DF93503E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1320,7 +1441,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1661,30 +1782,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:K50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="107" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="1"/>
-    <col min="11" max="11" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="89.25" customHeight="1" thickBot="1">
+    <row r="1" spans="2:20" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:20" ht="89.25" customHeight="1" thickBot="1">
       <c r="B2" s="36" t="s">
         <v>7</v>
       </c>
@@ -1694,9 +1815,12 @@
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="38"/>
-    </row>
-    <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:11" s="5" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="N2" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="9.9" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:20" s="5" customFormat="1" ht="24.9" customHeight="1" thickBot="1">
       <c r="B4" s="11" t="s">
         <v>6</v>
       </c>
@@ -1718,8 +1842,26 @@
       <c r="H4" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B5" s="16" t="s">
         <v>5</v>
       </c>
@@ -1735,8 +1877,11 @@
         <v>26</v>
       </c>
       <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B6" s="16" t="s">
         <v>5</v>
       </c>
@@ -1750,8 +1895,11 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-    </row>
-    <row r="7" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B7" s="16" t="s">
         <v>5</v>
       </c>
@@ -1765,8 +1913,11 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K7" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B8" s="16" t="s">
         <v>5</v>
       </c>
@@ -1780,8 +1931,11 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K8" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B9" s="16" t="s">
         <v>5</v>
       </c>
@@ -1796,8 +1950,11 @@
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K9" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B10" s="16" t="s">
         <v>5</v>
       </c>
@@ -1811,8 +1968,11 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K10" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B11" s="16" t="s">
         <v>5</v>
       </c>
@@ -1828,9 +1988,11 @@
       <c r="H11" s="20"/>
       <c r="I11" s="7"/>
       <c r="J11"/>
-      <c r="K11" s="7"/>
-    </row>
-    <row r="12" spans="2:11" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="K11" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B12" s="16" t="s">
         <v>5</v>
       </c>
@@ -1844,8 +2006,11 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-    </row>
-    <row r="13" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K12" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B13" s="16" t="s">
         <v>5</v>
       </c>
@@ -1859,8 +2024,11 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B14" s="16" t="s">
         <v>5</v>
       </c>
@@ -1874,8 +2042,11 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="2:11" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B15" s="16" t="s">
         <v>5</v>
       </c>
@@ -1889,8 +2060,11 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="2:11" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="K15" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="B16" s="16" t="s">
         <v>5</v>
       </c>
@@ -1904,8 +2078,11 @@
       <c r="F16" s="20"/>
       <c r="G16" s="26"/>
       <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="2:8" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="K16" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
       <c r="B17" s="16" t="s">
         <v>5</v>
       </c>
@@ -1919,8 +2096,11 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K17" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B18" s="32" t="s">
         <v>5</v>
       </c>
@@ -1934,8 +2114,11 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B19" s="16" t="s">
         <v>5</v>
       </c>
@@ -1949,8 +2132,11 @@
       <c r="F19" s="26"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K19" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B20" s="16" t="s">
         <v>5</v>
       </c>
@@ -1964,8 +2150,11 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="K20" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B21" s="16" t="s">
         <v>5</v>
       </c>
@@ -1976,7 +2165,7 @@
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="22" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B22" s="16" t="s">
         <v>5</v>
       </c>
@@ -1986,8 +2175,11 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="N22" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B23" s="16" t="s">
         <v>5</v>
       </c>
@@ -1997,8 +2189,11 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="J23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B24" s="16" t="s">
         <v>5</v>
       </c>
@@ -2008,8 +2203,11 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="2:8" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="J24" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B25" s="16" t="s">
         <v>5</v>
       </c>
@@ -2019,8 +2217,12 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="J25" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="39"/>
+    </row>
+    <row r="26" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B26" s="16" t="s">
         <v>5</v>
       </c>
@@ -2030,8 +2232,11 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="J26" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B27" s="16" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2247,7 @@
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
     </row>
-    <row r="28" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="28" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B28" s="16" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2258,7 @@
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
     </row>
-    <row r="29" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="29" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B29" s="16" t="s">
         <v>5</v>
       </c>
@@ -2064,7 +2269,7 @@
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="30" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B30" s="16" t="s">
         <v>5</v>
       </c>
@@ -2075,7 +2280,7 @@
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
     </row>
-    <row r="31" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="31" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B31" s="16" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2291,7 @@
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
     </row>
-    <row r="32" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="32" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B32" s="16" t="s">
         <v>5</v>
       </c>
@@ -2124,32 +2329,60 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="8"/>
+      <c r="C37" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="51"/>
       <c r="E37" s="9"/>
       <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="8"/>
+      <c r="C38" s="40">
+        <v>3</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>49</v>
+      </c>
       <c r="E38" s="9"/>
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="8"/>
+      <c r="C39" s="42">
+        <v>5</v>
+      </c>
+      <c r="D39" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="E39" s="9"/>
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="8"/>
+      <c r="C40" s="44">
+        <v>8</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>51</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="8"/>
+      <c r="C41" s="46">
+        <v>13</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>52</v>
+      </c>
       <c r="E41" s="9"/>
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="8"/>
+      <c r="C42" s="48">
+        <v>21</v>
+      </c>
+      <c r="D42" s="49" t="s">
+        <v>53</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="G42" s="10"/>
     </row>
@@ -2194,8 +2427,9 @@
       <c r="G50" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
+    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="B5:E7 E8 C5:C8 B8:B9 B21:B33 B11:B17 B19">
@@ -2406,42 +2640,29 @@
       <formula>#REF!="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B33 E5:E33">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{D05B6432-AA2C-4045-919C-377B36218316}"/>
+    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B5:B33</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E5:E33</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B94976FE-4B40-493B-8530-5823F3478496}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Documentação/xlxs/Product Backlog.xlsx
+++ b/Documentação/xlxs/Product Backlog.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WINDOWS10\Desktop\BandTec\Pesquisa e Inovação\HealthServer\HealthServer\Documentação\xlxs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F24D21E-D95B-4855-9025-C98D5B347E2C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016" tabRatio="885"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="Planilha1" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Importante</t>
   </si>
@@ -156,24 +152,6 @@
     <t>Pontuação</t>
   </si>
   <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Gabriel</t>
-  </si>
-  <si>
-    <t>Matheus</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
     <t>Fácil</t>
   </si>
   <si>
@@ -187,31 +165,16 @@
   </si>
   <si>
     <t>Muito Dificil</t>
-  </si>
-  <si>
-    <t>Tudo o que está com pontuação 3, é porque acredito que seja facil e há entendimento da minha parte.</t>
-  </si>
-  <si>
-    <t>Tudo o que está com pontuação 5, há entendimento da minha parte porem exige um pouco mais de tempo para desenvolver e maior contexto por trás.</t>
-  </si>
-  <si>
-    <t>Tudo o que está com pontuação 8, há entendimento da minha parte, mas exige tempo para desenvolvimento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tudo o que está com pontuação 13, há entendimento da minha parte, porem, o desenvolvimento do mesmo exige mais estudo e entendimento dos valores </t>
-  </si>
-  <si>
-    <t>Pontuação: DYLAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -326,6 +289,17 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <name val="Exo"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="28"/>
+      <name val="Exo"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -383,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -556,6 +530,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -581,7 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -618,9 +648,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,9 +663,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -650,23 +674,8 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -685,10 +694,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -696,6 +701,39 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,43 +743,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8" hidden="1"/>
@@ -1369,7 +1452,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C237F12-9C79-4455-B9B4-0B3C619348CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C237F12-9C79-4455-B9B4-0B3C619348CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1515,7 @@
         <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{07C3E689-C90D-474C-A0DF-E823DF93503E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C3E689-C90D-474C-A0DF-E823DF93503E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,11 +1865,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:T50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1"/>
@@ -1795,29 +1878,37 @@
     <col min="2" max="2" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="107" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.77734375" style="58" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="14.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:20" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="38"/>
-      <c r="N2" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="2:20" ht="9.9" customHeight="1" thickBot="1"/>
     <row r="4" spans="2:20" s="5" customFormat="1" ht="24.9" customHeight="1" thickBot="1">
@@ -1830,609 +1921,768 @@
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20" t="s">
+      <c r="E5" s="59">
+        <v>3</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="20"/>
-      <c r="K5" s="6">
+      <c r="H5" s="18"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+    </row>
+    <row r="6" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="K6" s="6">
+      <c r="F6" s="54"/>
+      <c r="G6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+    </row>
+    <row r="7" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B7" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B7" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="K7" s="6">
+      <c r="F7" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+    </row>
+    <row r="8" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="60">
+        <v>13</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+    </row>
+    <row r="9" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="61">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="K8" s="6">
+      <c r="F9" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="23"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="65"/>
+      <c r="O9" s="65"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+    </row>
+    <row r="10" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B10" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="56">
+        <v>13</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+    </row>
+    <row r="11" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B11" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="60">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="29"/>
-      <c r="K9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="K10" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="F11" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="7"/>
       <c r="J11"/>
-      <c r="K11" s="7">
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+    </row>
+    <row r="12" spans="2:20" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B12" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="60">
+        <v>5</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+    </row>
+    <row r="13" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B13" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="62">
+        <v>3</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="65"/>
+      <c r="O13" s="65"/>
+      <c r="P13" s="65"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+    </row>
+    <row r="14" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B14" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="60">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="K12" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="K13" s="6">
+      <c r="F14" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
+      <c r="M14" s="65"/>
+      <c r="N14" s="65"/>
+      <c r="O14" s="65"/>
+      <c r="P14" s="65"/>
+      <c r="Q14" s="65"/>
+      <c r="R14" s="65"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+    </row>
+    <row r="15" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B15" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="60">
+        <v>5</v>
+      </c>
+      <c r="F15" s="54"/>
+      <c r="G15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="65"/>
+      <c r="O15" s="65"/>
+      <c r="P15" s="65"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+    </row>
+    <row r="16" spans="2:20" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B16" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="60">
+        <v>5</v>
+      </c>
+      <c r="F16" s="54"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="67"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65"/>
+      <c r="N16" s="65"/>
+      <c r="O16" s="65"/>
+      <c r="P16" s="65"/>
+      <c r="Q16" s="65"/>
+      <c r="R16" s="65"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+    </row>
+    <row r="17" spans="2:20" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
+      <c r="B17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="60">
+        <v>5</v>
+      </c>
+      <c r="F17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
+      <c r="Q17" s="65"/>
+      <c r="R17" s="65"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+    </row>
+    <row r="18" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="56">
+        <v>5</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+    </row>
+    <row r="19" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="56">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="K14" s="6">
+      <c r="F19" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+    </row>
+    <row r="20" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B20" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="60">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B15" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="K15" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20" s="6" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B16" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="20"/>
-      <c r="K16" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" s="6" customFormat="1" ht="27" customHeight="1" thickBot="1">
-      <c r="B17" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="K17" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B18" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="K18" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="K19" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B20" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="K20" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B21" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B22" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="N22" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B23" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="J23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B24" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="J24" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B25" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="J25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="39"/>
-    </row>
-    <row r="26" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="J26" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B27" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B28" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B29" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B30" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-    </row>
-    <row r="31" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-    </row>
-    <row r="32" spans="2:14" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B32" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="18"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+    </row>
+    <row r="21" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B21" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B22" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B23" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B24" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="2:20" s="6" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B26" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B27" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B28" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="16"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B29" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="16"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B30" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="16"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B31" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="16"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="2:20" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B32" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="16"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B33" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="B33" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="16"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
     </row>
     <row r="34" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="G34" s="10"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="9"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="G35" s="10"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="9"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="G36" s="10"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="9"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="9"/>
-      <c r="G37" s="10"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="9"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="40">
+      <c r="C38" s="30">
         <v>3</v>
       </c>
-      <c r="D38" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="G38" s="10"/>
+      <c r="D38" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" s="45"/>
+      <c r="F38" s="9"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="42">
-        <v>5</v>
-      </c>
-      <c r="D39" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="G39" s="10"/>
+      <c r="C39" s="32">
+        <v>5</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="9"/>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="44">
+      <c r="C40" s="34">
         <v>8</v>
       </c>
-      <c r="D40" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="G40" s="10"/>
+      <c r="D40" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="47"/>
+      <c r="F40" s="9"/>
+      <c r="H40" s="10"/>
     </row>
     <row r="41" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="46">
+      <c r="C41" s="36">
         <v>13</v>
       </c>
-      <c r="D41" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="G41" s="10"/>
+      <c r="D41" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="9"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="48">
+      <c r="C42" s="38">
         <v>21</v>
       </c>
-      <c r="D42" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="G42" s="10"/>
+      <c r="D42" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E42" s="49"/>
+      <c r="F42" s="9"/>
+      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="9"/>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="G44" s="10"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="9"/>
+      <c r="H44" s="10"/>
     </row>
     <row r="45" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="G45" s="10"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="9"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C46" s="8"/>
-      <c r="E46" s="9"/>
-      <c r="G46" s="10"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="9"/>
+      <c r="H46" s="10"/>
     </row>
     <row r="47" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C47" s="8"/>
-      <c r="E47" s="9"/>
-      <c r="G47" s="10"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="2:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C48" s="8"/>
-      <c r="E48" s="9"/>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="E48" s="63"/>
+      <c r="F48" s="9"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="3:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C49" s="8"/>
-      <c r="E49" s="9"/>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="3:7" s="6" customFormat="1" ht="23.1" customHeight="1">
+      <c r="E49" s="63"/>
+      <c r="F49" s="9"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="3:8" s="6" customFormat="1" ht="23.1" customHeight="1">
       <c r="C50" s="8"/>
-      <c r="E50" s="9"/>
-      <c r="G50" s="10"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="9"/>
+      <c r="H50" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B2:I2"/>
     <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="B5:E7 E8 C5:C8 B8:B9 B21:B33 B11:B17 B19">
+  <conditionalFormatting sqref="B5:E7 C5:C8 B8:B9 B21:B33 B11:B17 B19">
     <cfRule type="expression" dxfId="59" priority="69">
       <formula>$B5="Done!"</formula>
     </cfRule>
@@ -2446,7 +2696,7 @@
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="D9:E9">
     <cfRule type="expression" dxfId="55" priority="61">
       <formula>$B9="Done!"</formula>
     </cfRule>
@@ -2460,7 +2710,7 @@
       <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8">
+  <conditionalFormatting sqref="D8:E8">
     <cfRule type="expression" dxfId="51" priority="53">
       <formula>$B8="Done!"</formula>
     </cfRule>
@@ -2488,7 +2738,7 @@
       <formula>$B9="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11 D14:D33">
+  <conditionalFormatting sqref="D11:E11 D14:E33">
     <cfRule type="expression" dxfId="43" priority="36">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
@@ -2533,7 +2783,7 @@
       <formula>$B10="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10">
+  <conditionalFormatting sqref="D10:E10">
     <cfRule type="expression" dxfId="30" priority="23">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
@@ -2592,7 +2842,7 @@
       <formula>$B20="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
+  <conditionalFormatting sqref="D12:E12">
     <cfRule type="expression" dxfId="13" priority="78">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
@@ -2623,7 +2873,7 @@
       <formula>#REF!="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6">
+  <conditionalFormatting sqref="D6:E6">
     <cfRule type="expression" dxfId="4" priority="118">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
@@ -2641,12 +2891,12 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B33 E5:E33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)"/>
+    <hyperlink ref="C4" location="Dados!A1" display="Artefato de Referência (XX#R)" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -2655,7 +2905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
